--- a/100_logic/logiclist.xlsx
+++ b/100_logic/logiclist.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="管理一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="山田メモ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">管理一覧!$A$5:$Q$5</definedName>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
   <si>
     <t>記入日</t>
     <rPh sb="0" eb="2">
@@ -425,218 +424,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>使えそうなロジック一覧</t>
-    <rPh sb="0" eb="1">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>△</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>通貨別にレンジ相場になる時間帯の分析をしてからバックテストをしてみたい</t>
-    <rPh sb="0" eb="2">
-      <t>ツウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウバ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ジカンタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ブンセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://fx-works.jp/do-n/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://fx-works.jp/songiri_gekisema/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>MA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>反発・損切り激狭の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>分スキャルピングトレード</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>試してみてよい程度</t>
-    <rPh sb="0" eb="1">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テイド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←全般的に急な相場転換や経済発表の影響を受けづらい手法を抽出</t>
-    <rPh sb="1" eb="4">
-      <t>ゼンパンテキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウバ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テンカン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケイザイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>チュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://fx-works.jp/neugoki_1s/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>値動きを感じて1分足エントリー手法</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://fx-works.jp/sinnya1-5/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日本時間深夜1時～5時の安定相場で逆張りを狙う</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>201704-001とどちらが良いのか、バックテスト次第</t>
-    <rPh sb="15" eb="16">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://fx-works.jp/1_2.5s/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>１分足だけで勝てる！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.5σ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>スキャルピング手法</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>▲</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レンジ相場前提のため、No3と組み合わせて使ってみると面白そう</t>
-    <rPh sb="3" eb="5">
-      <t>ソウバ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゼンテイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>オモシロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スキャルピング
 デイトレード</t>
     <phoneticPr fontId="2"/>
@@ -685,10 +472,6 @@
     <rPh sb="25" eb="26">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>経済指標時におけるドーンプライスアクション</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1903,12 +1686,24 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>201704-0051</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビットコイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://hbol.jp/75742</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1958,25 +1753,12 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -2089,7 +1871,7 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2108,17 +1890,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2135,7 +1918,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2444,13 +2228,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2485,76 +2269,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="16" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17" t="s">
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
       <c r="U4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="20"/>
+      <c r="W4" s="19"/>
       <c r="X4" s="7" t="s">
         <v>23</v>
       </c>
@@ -2573,7 +2357,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>6</v>
@@ -2600,25 +2384,25 @@
         <v>9</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>25</v>
@@ -2629,7 +2413,7 @@
     </row>
     <row r="6" spans="1:24" ht="63" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6">
         <v>42826</v>
@@ -2641,19 +2425,19 @@
         <v>27</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>29</v>
@@ -2671,15 +2455,15 @@
         <v>32</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -2687,7 +2471,7 @@
     </row>
     <row r="7" spans="1:24" ht="63" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6">
         <v>42826</v>
@@ -2699,19 +2483,19 @@
         <v>27</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>29</v>
@@ -2726,18 +2510,18 @@
         <v>31</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -2745,7 +2529,7 @@
     </row>
     <row r="8" spans="1:24" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6">
         <v>42826</v>
@@ -2754,50 +2538,50 @@
         <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>57</v>
+      <c r="P8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -2805,7 +2589,7 @@
     </row>
     <row r="9" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6">
         <v>42826</v>
@@ -2817,16 +2601,16 @@
         <v>27</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>103</v>
+        <v>51</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>29</v>
@@ -2843,17 +2627,17 @@
       <c r="O9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>59</v>
+      <c r="P9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2861,28 +2645,28 @@
     </row>
     <row r="10" spans="1:24" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D10" s="6">
         <v>42832</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>29</v>
@@ -2891,25 +2675,25 @@
         <v>29</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="8" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2917,108 +2701,94 @@
     </row>
     <row r="11" spans="1:24" ht="126" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D11" s="6">
         <v>42832</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>113</v>
+    <row r="12" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="D12" s="6">
-        <v>42837</v>
+        <v>42845</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -3027,22 +2797,52 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+    <row r="13" spans="1:24" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42837</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -3243,8 +3043,32 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="J23" s="9"/>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3259,10 +3083,10 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U12:U21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U13:U22">
       <formula1>"NG,候補,保留"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U12">
       <formula1>"NG,仮候補,候補,保留"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3270,134 +3094,11 @@
     <hyperlink ref="J9" r:id="rId1"/>
     <hyperlink ref="P9" r:id="rId2"/>
     <hyperlink ref="Q9" r:id="rId3"/>
-    <hyperlink ref="J12" r:id="rId4" display="http://fxxy.org/2695.html"/>
+    <hyperlink ref="J13" r:id="rId4" display="http://fxxy.org/2695.html"/>
+    <hyperlink ref="J12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/100_logic/logiclist.xlsx
+++ b/100_logic/logiclist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="管理一覧" sheetId="1" r:id="rId1"/>
@@ -1903,6 +1903,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1917,10 +1921,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2230,11 +2230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D16:D17"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2276,69 +2276,69 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="15" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="16" t="s">
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
       <c r="U4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="19"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="7" t="s">
         <v>23</v>
       </c>
@@ -2758,7 +2758,7 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="6">
@@ -2779,7 +2779,7 @@
       <c r="I12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="16" t="s">
         <v>106</v>
       </c>
       <c r="K12" s="8"/>

--- a/100_logic/logiclist.xlsx
+++ b/100_logic/logiclist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="管理一覧" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
   <si>
     <t>記入日</t>
     <rPh sb="0" eb="2">
@@ -455,23 +455,6 @@
   </si>
   <si>
     <t>ボリンジャー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1)5Pips
-2)ボリンジャーの中間と上限の中間値?</t>
-    <rPh sb="17" eb="19">
-      <t>チュウカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>チュウカン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アタイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1030,14 +1013,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1)-5Pips
-2)安値</t>
-    <rPh sb="11" eb="13">
-      <t>ヤスネ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>201704-0040</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1438,6 +1413,229 @@
   </si>
   <si>
     <t>フォワードテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金曜の深夜は週次のレンジになりやすい
+レンジ相場の判定を分析する
+参考：
+　http://fxxy.org/205.html</t>
+    <rPh sb="0" eb="2">
+      <t>キンヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウバ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>201704-0060</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EUR円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・各通貨で同時に1枚注文まで
+・同じ通貨ペアで2回連続負けたら、取引STOP</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FX通貨ペアor株価との相関性</t>
+    <rPh sb="8" eb="10">
+      <t>カブカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①EUR円とUSD円の動きの遅れを検知
+or
+①NYダウとUSD円の動きの遅れを検知</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+http://fxxy.org/2695.html
+http://www.matsui.co.jp/market/fx/correlation/
+http://fxxy.org/2574.html</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1分足
+or
+5分足</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・○Pips固定</t>
+    <rPh sb="6" eb="8">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間足を過ぎたら、決済</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>201704-0051</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビットコイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://hbol.jp/75742</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>201704-0021</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「レンジ相場でコツコツ2」
+深夜などレンジ相場になりやすい時間帯を対象として、ボリンジャーの押し目でトレード。</t>
+    <rPh sb="4" eb="6">
+      <t>ソウバ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウバ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>メ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1473,8 +1671,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>　1)https://fx-works.jp/sinnya1-5/
-　2)https://fx-works.jp/1_2.5s/　　(←感覚的にはこっち)</t>
+      <t>　https://fx-works.jp/1_2.5s/　　(←感覚的にはこっち)</t>
     </r>
     <rPh sb="2" eb="3">
       <t>ジ</t>
@@ -1500,202 +1697,101 @@
     <rPh sb="51" eb="52">
       <t>ホウ</t>
     </rPh>
-    <rPh sb="121" eb="124">
+    <rPh sb="85" eb="88">
       <t>カンカクテキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>金曜の深夜は週次のレンジになりやすい
-レンジ相場の判定を分析する
-参考：
-　http://fxxy.org/205.html</t>
-    <rPh sb="0" eb="2">
-      <t>キンヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンヤ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウバ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>201704-0060</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>山田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EUR円</t>
-    <rPh sb="3" eb="4">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・各通貨で同時に1枚注文まで
-・同じ通貨ペアで2回連続負けたら、取引STOP</t>
-    <rPh sb="1" eb="2">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツウカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FX通貨ペアor株価との相関性</t>
-    <rPh sb="8" eb="10">
-      <t>カブカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
+    <r>
+      <t>①</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>①EUR円とUSD円の動きの遅れを検知
-or
-①NYダウとUSD円の動きの遅れを検知</t>
+      <t>1時~5時?</t>
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-http://fxxy.org/2695.html
-http://www.matsui.co.jp/market/fx/correlation/
-http://fxxy.org/2574.html</t>
+      <t xml:space="preserve">であること
+②ボリンジャーの押し目でトレード。ルールは下記の内、バックテストの成績がよい方
+</t>
     </r>
-    <rPh sb="4" eb="5">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンチ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ウゴ</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　https://fx-works.jp/sinnya1-5/</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カキ</t>
     </rPh>
     <rPh sb="37" eb="38">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ケンチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1分足
-or
-5分足</t>
-    <rPh sb="1" eb="2">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アシ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ソク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・○Pips固定</t>
-    <rPh sb="6" eb="8">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>時間足を過ぎたら、決済</t>
-    <rPh sb="0" eb="1">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ソク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケッサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>201704-0051</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ビットコイン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://hbol.jp/75742</t>
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安値</t>
+    <rPh sb="0" eb="2">
+      <t>ヤスネ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボリンジャーの中間と上限の中間値?</t>
+    <rPh sb="7" eb="9">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-5Pips</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5Pips</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1873,7 +1969,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1921,6 +2017,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2228,13 +2327,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2269,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -2357,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>6</v>
@@ -2384,10 +2483,10 @@
         <v>9</v>
       </c>
       <c r="P5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>16</v>
@@ -2396,13 +2495,13 @@
         <v>33</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>25</v>
@@ -2413,7 +2512,7 @@
     </row>
     <row r="6" spans="1:24" ht="63" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6">
         <v>42826</v>
@@ -2425,19 +2524,19 @@
         <v>27</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>29</v>
@@ -2455,15 +2554,15 @@
         <v>32</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -2471,7 +2570,7 @@
     </row>
     <row r="7" spans="1:24" ht="63" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="6">
         <v>42826</v>
@@ -2483,19 +2582,19 @@
         <v>27</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>29</v>
@@ -2510,26 +2609,26 @@
         <v>31</v>
       </c>
       <c r="P7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="R7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="63" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="6">
         <v>42826</v>
@@ -2541,19 +2640,19 @@
         <v>35</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>29</v>
@@ -2568,28 +2667,28 @@
         <v>31</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="63" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D9" s="6">
         <v>42826</v>
@@ -2597,76 +2696,80 @@
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>27</v>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>29</v>
+        <v>105</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="3"/>
+      <c r="P9" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="U9" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6">
-        <v>42832</v>
+        <v>42826</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>29</v>
@@ -2675,57 +2778,57 @@
         <v>29</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="T10" s="3"/>
       <c r="U10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="126" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6">
         <v>42832</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>29</v>
@@ -2733,116 +2836,118 @@
       <c r="M11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="3"/>
+      <c r="N11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="15" t="s">
-        <v>104</v>
+    <row r="12" spans="1:24" ht="126" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="6">
-        <v>42845</v>
+        <v>42832</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="P12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>94</v>
+    <row r="13" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="D13" s="6">
-        <v>42837</v>
+        <v>42845</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>103</v>
       </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -2851,22 +2956,52 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+    <row r="14" spans="1:24" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42837</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -3067,8 +3202,32 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="J24" s="9"/>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3083,19 +3242,19 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U13:U22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U14:U23">
       <formula1>"NG,候補,保留"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U13">
       <formula1>"NG,仮候補,候補,保留"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J9" r:id="rId1"/>
-    <hyperlink ref="P9" r:id="rId2"/>
-    <hyperlink ref="Q9" r:id="rId3"/>
-    <hyperlink ref="J13" r:id="rId4" display="http://fxxy.org/2695.html"/>
-    <hyperlink ref="J12" r:id="rId5"/>
+    <hyperlink ref="J10" r:id="rId1"/>
+    <hyperlink ref="P10" r:id="rId2"/>
+    <hyperlink ref="Q10" r:id="rId3"/>
+    <hyperlink ref="J14" r:id="rId4" display="http://fxxy.org/2695.html"/>
+    <hyperlink ref="J13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/100_logic/logiclist.xlsx
+++ b/100_logic/logiclist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="管理一覧" sheetId="1" r:id="rId1"/>
@@ -1799,7 +1799,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2003,6 +2003,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,9 +2020,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2330,13 +2330,13 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="3.625" style="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
@@ -2363,7 +2363,7 @@
     <col min="25" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2371,78 +2371,78 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="1:24">
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="17" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="18" t="s">
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19" t="s">
+    <row r="4" spans="1:24">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="18" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="21"/>
+      <c r="W4" s="22"/>
       <c r="X4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="63">
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="63">
       <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="63">
       <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="63">
       <c r="C9" s="3" t="s">
         <v>104</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="O9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="17" t="s">
         <v>110</v>
       </c>
       <c r="Q9" s="10" t="s">
@@ -2746,7 +2746,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="47.25">
       <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="70.5" customHeight="1">
       <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" ht="126" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="126">
       <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
@@ -2916,7 +2916,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="31.5">
       <c r="C13" s="15" t="s">
         <v>101</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="82.5">
       <c r="C14" s="3" t="s">
         <v>91</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3034,7 +3034,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3058,7 +3058,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:24">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3082,7 +3082,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:24">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3106,7 +3106,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:24">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -3130,7 +3130,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:24">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3154,7 +3154,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:24">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -3178,7 +3178,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:24">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3202,7 +3202,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:24">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3226,7 +3226,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:24">
       <c r="J25" s="9"/>
     </row>
   </sheetData>

--- a/100_logic/logiclist.xlsx
+++ b/100_logic/logiclist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="管理一覧" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
   <si>
     <t>記入日</t>
     <rPh sb="0" eb="2">
@@ -1447,10 +1447,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>201704-0060</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>山田</t>
     <rPh sb="0" eb="2">
       <t>ヤマダ</t>
@@ -1792,6 +1788,116 @@
   </si>
   <si>
     <t>5Pips</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>201704-0060</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有川</t>
+    <rPh sb="0" eb="2">
+      <t>アリカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドル円</t>
+    <rPh sb="2" eb="3">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機械学習でブラックボックス化</t>
+    <rPh sb="0" eb="4">
+      <t>キカイガクシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1分足</t>
+    <rPh sb="1" eb="2">
+      <t>プン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・○Pips固定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間足を過ぎたら、決済</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・同じ通貨ペアで2回連続負けたら、取引STOP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動平均など</t>
+    <rPh sb="0" eb="4">
+      <t>イドウヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「30分以内に5pips以上の利益獲得可能な確率」を機械学習で出力し、
+その確率に応じてロットサイズを可変にする。
+http://qiita.com/T_Umezaki/items/05302aec04048e280dfe</t>
+    <rPh sb="3" eb="4">
+      <t>プン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カヘン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>201705-0010</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2329,11 +2435,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -2347,7 +2453,7 @@
     <col min="8" max="8" width="20.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="37.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="54.875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="25.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="39.875" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="11.25" style="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="14.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="11.25" style="1" customWidth="1" outlineLevel="1"/>
@@ -2568,7 +2674,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="63">
+    <row r="7" spans="1:24" ht="47.25">
       <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
@@ -2649,7 +2755,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>53</v>
@@ -2667,10 +2773,10 @@
         <v>31</v>
       </c>
       <c r="P8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>90</v>
@@ -2688,7 +2794,7 @@
     </row>
     <row r="9" spans="1:24" ht="63">
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6">
         <v>42826</v>
@@ -2706,10 +2812,10 @@
         <v>36</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>53</v>
@@ -2727,10 +2833,10 @@
         <v>31</v>
       </c>
       <c r="P9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>90</v>
@@ -2918,7 +3024,7 @@
     </row>
     <row r="13" spans="1:24" ht="31.5">
       <c r="C13" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6">
         <v>42845</v>
@@ -2933,13 +3039,13 @@
         <v>79</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="3"/>
@@ -2958,13 +3064,13 @@
     </row>
     <row r="14" spans="1:24" ht="82.5">
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D14" s="6">
         <v>42837</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>27</v>
@@ -2973,34 +3079,34 @@
         <v>79</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -3010,22 +3116,50 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+    <row r="15" spans="1:24" ht="94.5">
+      <c r="C15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42864</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
